--- a/output/StructureDefinition-secureExchangeArtifacts.xlsx
+++ b/output/StructureDefinition-secureExchangeArtifacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="118">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,13 +364,17 @@
     <t>Certificate</t>
   </si>
   <si>
+    <t xml:space="preserve">base64Binary
+</t>
+  </si>
+  <si>
     <t>expirationDate</t>
   </si>
   <si>
     <t>Expiration Date</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -2093,7 +2097,7 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>107</v>
@@ -2173,7 +2177,7 @@
         <v>86</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
@@ -2198,7 +2202,7 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>89</v>
@@ -2512,7 +2516,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>74</v>
@@ -2597,7 +2601,7 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>107</v>
@@ -2799,7 +2803,7 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>107</v>

--- a/output/StructureDefinition-secureExchangeArtifacts.xlsx
+++ b/output/StructureDefinition-secureExchangeArtifacts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-secureExchangeArtifacts.xlsx
+++ b/output/StructureDefinition-secureExchangeArtifacts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-secureExchangeArtifacts.xlsx
+++ b/output/StructureDefinition-secureExchangeArtifacts.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/secureExchangeArtifacts</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/secureExchangeArtifacts</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-secureExchangeArtifacts.xlsx
+++ b/output/StructureDefinition-secureExchangeArtifacts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-secureExchangeArtifacts.xlsx
+++ b/output/StructureDefinition-secureExchangeArtifacts.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/secureExchangeArtifacts</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/secureExchangeArtifacts</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-secureExchangeArtifacts.xlsx
+++ b/output/StructureDefinition-secureExchangeArtifacts.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/secureExchangeArtifacts</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/secureExchangeArtifacts</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
